--- a/user-data/oda-to-ldcs-percent-gni/oda-to-ldcs-percent-gni.xlsx
+++ b/user-data/oda-to-ldcs-percent-gni/oda-to-ldcs-percent-gni.xlsx
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 68</t>
+    <t xml:space="preserve">Source: 69</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 9</t>

--- a/user-data/oda-to-ldcs-percent-gni/oda-to-ldcs-percent-gni.xlsx
+++ b/user-data/oda-to-ldcs-percent-gni/oda-to-ldcs-percent-gni.xlsx
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 69</t>
+    <t xml:space="preserve">Source: 71</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 9</t>

--- a/user-data/oda-to-ldcs-percent-gni/oda-to-ldcs-percent-gni.xlsx
+++ b/user-data/oda-to-ldcs-percent-gni/oda-to-ldcs-percent-gni.xlsx
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 68</t>
+    <t xml:space="preserve">Source: 71</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 9</t>

--- a/user-data/oda-to-ldcs-percent-gni/oda-to-ldcs-percent-gni.xlsx
+++ b/user-data/oda-to-ldcs-percent-gni/oda-to-ldcs-percent-gni.xlsx
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 71</t>
+    <t xml:space="preserve">Source: 70</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 9</t>
